--- a/Curso PB 1/Mapa_PB_1.xlsx
+++ b/Curso PB 1/Mapa_PB_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Pack\Curso PB 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelodePaula\OneDrive\Udemy\PowerBI\Curso PB 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7D1C64-F49E-43AE-B44E-B748143B4BC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FC7D1C64-F49E-43AE-B44E-B748143B4BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{247C0A37-6B7E-4CDC-B2D5-66F02F2D4258}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D5C75DCF-13DF-4C85-968C-C527C47AB8C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5C75DCF-13DF-4C85-968C-C527C47AB8C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -584,10 +584,34 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -607,30 +631,6 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1960,7 +1960,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE8814F6-5C42-4277-8324-73ADA5B01689}" name="Tabela dinâmica1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE8814F6-5C42-4277-8324-73ADA5B01689}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A4:C22" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
@@ -2181,23 +2181,23 @@
     <dataField name="Módulo/Aulas" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="9">
+    <format dxfId="4">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="3">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2215,15 +2215,21 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5777F8F9-C0BA-46A4-A9FD-761DDD24E355}" name="Tabela1" displayName="Tabela1" ref="A1:G107" totalsRowShown="0">
-  <autoFilter ref="A1:G107" xr:uid="{905BD8D3-C63F-44A3-A970-B9ABA66DA55B}"/>
+  <autoFilter ref="A1:G107" xr:uid="{905BD8D3-C63F-44A3-A970-B9ABA66DA55B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Hands on ! Importando dados"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{79EB8918-8547-409F-8EB1-AB8D3264D975}" name="Modulo" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{BFE6D17A-3421-4BAD-BEA9-82275B092ED9}" name="Seq Mod" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{FC7B5E40-94E9-44AB-9B21-F8402B5140E6}" name="Aula" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{2B6C8885-CBAD-4DDF-A831-B9455A3BC9B9}" name="Nome Aula" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{590AD6CF-9C47-44E3-9E61-EF6F8EA57E2A}" name="Fonte de dados" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{BC48F28E-85A4-4B57-87C6-6A79F053A06C}" name="Arquivo PBIX" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{14A2687C-923D-4964-88A8-682B5B179DA0}" name="Links" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{BFE6D17A-3421-4BAD-BEA9-82275B092ED9}" name="Seq Mod" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{FC7B5E40-94E9-44AB-9B21-F8402B5140E6}" name="Aula" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2B6C8885-CBAD-4DDF-A831-B9455A3BC9B9}" name="Nome Aula" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{590AD6CF-9C47-44E3-9E61-EF6F8EA57E2A}" name="Fonte de dados" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{BC48F28E-85A4-4B57-87C6-6A79F053A06C}" name="Arquivo PBIX" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{14A2687C-923D-4964-88A8-682B5B179DA0}" name="Links" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2528,16 +2534,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EE47C9-57D0-4C80-B4BF-114870EE5AF7}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -2566,7 +2572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -2583,7 +2589,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -2603,7 +2609,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -2639,7 +2645,7 @@
       <c r="E5"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -2656,7 +2662,7 @@
       <c r="E6"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -2674,7 +2680,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
@@ -2692,7 +2698,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
@@ -2710,7 +2716,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
@@ -2728,7 +2734,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
@@ -2746,7 +2752,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
@@ -2764,7 +2770,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>9</v>
       </c>
@@ -2782,7 +2788,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>9</v>
       </c>
@@ -2800,7 +2806,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>99</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>99</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>99</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>99</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>99</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>100</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>100</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>100</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>100</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>100</v>
       </c>
@@ -3265,7 +3271,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>100</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>101</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>101</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>101</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>102</v>
       </c>
@@ -3355,7 +3361,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>102</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>102</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>102</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>102</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>102</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>112</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>112</v>
       </c>
@@ -3505,7 +3511,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>112</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>112</v>
       </c>
@@ -3547,7 +3553,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>112</v>
       </c>
@@ -3568,7 +3574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>112</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>103</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>103</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>103</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
@@ -3658,7 +3664,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>103</v>
       </c>
@@ -3676,7 +3682,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>103</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>103</v>
       </c>
@@ -3712,7 +3718,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>103</v>
       </c>
@@ -3732,7 +3738,7 @@
       </c>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>104</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>104</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>104</v>
       </c>
@@ -3786,7 +3792,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>104</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>72</v>
       </c>
@@ -3822,7 +3828,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>72</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>72</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>72</v>
       </c>
@@ -3876,7 +3882,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>72</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>72</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>72</v>
       </c>
@@ -3930,7 +3936,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>72</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>72</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>72</v>
       </c>
@@ -3987,7 +3993,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>105</v>
       </c>
@@ -4005,7 +4011,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>105</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>105</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>105</v>
       </c>
@@ -4059,7 +4065,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>105</v>
       </c>
@@ -4077,7 +4083,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>105</v>
       </c>
@@ -4101,7 +4107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>106</v>
       </c>
@@ -4119,7 +4125,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>106</v>
       </c>
@@ -4137,7 +4143,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>106</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>107</v>
       </c>
@@ -4173,7 +4179,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>108</v>
       </c>
@@ -4194,7 +4200,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>108</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>108</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>108</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>108</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>108</v>
       </c>
@@ -4284,7 +4290,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>108</v>
       </c>
@@ -4302,7 +4308,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>108</v>
       </c>
@@ -4320,7 +4326,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>108</v>
       </c>
@@ -4338,7 +4344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>108</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>108</v>
       </c>
@@ -4374,7 +4380,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>108</v>
       </c>
@@ -4392,7 +4398,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>108</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>108</v>
       </c>
@@ -4428,7 +4434,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>108</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>108</v>
       </c>
@@ -4464,7 +4470,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>108</v>
       </c>
@@ -4485,7 +4491,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>108</v>
       </c>
